--- a/TermValidator/TestFiles/ForbiddenTerms_EN.xlsx
+++ b/TermValidator/TestFiles/ForbiddenTerms_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\TermValidator\TermValidator\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA5AC05-7CF5-4893-8256-044545B01A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C924947A-DFB2-4C6D-82DE-284055010070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12F04906-B181-4ED5-8159-C2181B75B9FF}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{12F04906-B181-4ED5-8159-C2181B75B9FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Positive Example</t>
   </si>
   <si>
-    <t>a bit</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>The interviews were difficult to schedule</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -429,13 +429,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,16 +478,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,16 +495,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
